--- a/data/hotels_by_city/Houston/Houston_shard_253.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_253.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d109734-Reviews-Galleria_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,308 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r233215447-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>109734</t>
+  </si>
+  <si>
+    <t>233215447</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Sleep in your car, on the sidewalk, or get arrested and spend the night in lockup!! But DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>Arrived and immediately felt like I was going to be mugged, robbed, or have my Goldwing stolen or vandalised. The neighbourhood is infested with drunks, druggies, pimps and hookers!! Got to my room dog tired from riding all day and the front of the AC unit is on the floor and it won't turn on. They moved me to another room after a few sighs and groans as if I was bothering them!! Room 2 the door does not lock and the lights won't turn on!  Room 3, the lights, 3 of 6 went on so I "moved in". Once in I immediately ran out to get something to eat my plan was to eat, shower and get straight to bed, even though it was only 8 PM I was spent. After eating I went back to the room and moving slower now began to notice things, like the cigarette burn holes in the bed spreads and blankets, the ceiling was covered in dust clumps from the AC blowing on it, one of the 3 lights that was not working had no bulb in it, the phone plug was pulled out and would not stay inserted in the phone as someone broke the lock tab off it, the small coffee maker looked as if it had been used to strain used motor oil, if noticed chunks of dog food on the floor and 3 slices of pepperoni, (I did not...Arrived and immediately felt like I was going to be mugged, robbed, or have my Goldwing stolen or vandalised. The neighbourhood is infested with drunks, druggies, pimps and hookers!! Got to my room dog tired from riding all day and the front of the AC unit is on the floor and it won't turn on. They moved me to another room after a few sighs and groans as if I was bothering them!! Room 2 the door does not lock and the lights won't turn on!  Room 3, the lights, 3 of 6 went on so I "moved in". Once in I immediately ran out to get something to eat my plan was to eat, shower and get straight to bed, even though it was only 8 PM I was spent. After eating I went back to the room and moving slower now began to notice things, like the cigarette burn holes in the bed spreads and blankets, the ceiling was covered in dust clumps from the AC blowing on it, one of the 3 lights that was not working had no bulb in it, the phone plug was pulled out and would not stay inserted in the phone as someone broke the lock tab off it, the small coffee maker looked as if it had been used to strain used motor oil, if noticed chunks of dog food on the floor and 3 slices of pepperoni, (I did not have any pepperoni for dinner and was not traveling with a dog!), the small metal storage cabinet on the wall had drippings of the same oily substance that was in and on the coffee maker. At this point I stopped looking and decided that as exhausted as I was I just needed to shower and go to bed and get up early and get out of there!! I got my clothes, razor, and toiletries and walked into the bathroom. Pulling the shower curtain back to turn on the water, I was met by a cockroach and his companion crawling out of the tub drain!! So much for my shower!! When I turned to get my camera to capture the moment of our introduction I saw 5 more of the roaches relatives, in varying degrees of decay on the floor next to the fridge, and under the fridge door. I photographed Mr and Mrs roach in the tub before sending them both to the great beyond them proceeded to take pics of the "crime" scene with the 5 dead relatives of the aforementioned and now themselves deceased Mr and Mrs roach. I then took pics of everything else I have mentioned. Without a shower I lay down on top of the bed to try and get some sleep. Every time I closed my eyes and started to drift off, I would see Mr and Mrs roach making their approach and introduction from the tub drain!! 2 hours was all I got at the most, between the sirens, the argument in the parking lot between the hooker and her John or pimp, the 2 druggies in the room opposite mine arguing about some missing rocks and the nightly neighbourhood party at 1 AM in the alley next door!!  I was up and out before sunrise and immediately called Choice and filed a complaint complete with an email with pictures attached, especially of the roach family, dead and alive. All I can say is DO NOT EVEN CONSIDER STAYING AT THIS HOTEL!! OH yeah, almost forgot, the swimming pool was filled with green water!! Fresh water, not salt water and when the underwater lights came on after dark, I could see the water was literally green!! So, take or don't take my advice, but if you decide to stay here, make sure your will is signed and compete you have some roach motels with you and be prepared not to get any sleep at all. And leave your bathing suit at home, you would most likely contract a disease from swimming in this water!! Hope I was able to help and prevent someone else from having to love the Hell night I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived and immediately felt like I was going to be mugged, robbed, or have my Goldwing stolen or vandalised. The neighbourhood is infested with drunks, druggies, pimps and hookers!! Got to my room dog tired from riding all day and the front of the AC unit is on the floor and it won't turn on. They moved me to another room after a few sighs and groans as if I was bothering them!! Room 2 the door does not lock and the lights won't turn on!  Room 3, the lights, 3 of 6 went on so I "moved in". Once in I immediately ran out to get something to eat my plan was to eat, shower and get straight to bed, even though it was only 8 PM I was spent. After eating I went back to the room and moving slower now began to notice things, like the cigarette burn holes in the bed spreads and blankets, the ceiling was covered in dust clumps from the AC blowing on it, one of the 3 lights that was not working had no bulb in it, the phone plug was pulled out and would not stay inserted in the phone as someone broke the lock tab off it, the small coffee maker looked as if it had been used to strain used motor oil, if noticed chunks of dog food on the floor and 3 slices of pepperoni, (I did not...Arrived and immediately felt like I was going to be mugged, robbed, or have my Goldwing stolen or vandalised. The neighbourhood is infested with drunks, druggies, pimps and hookers!! Got to my room dog tired from riding all day and the front of the AC unit is on the floor and it won't turn on. They moved me to another room after a few sighs and groans as if I was bothering them!! Room 2 the door does not lock and the lights won't turn on!  Room 3, the lights, 3 of 6 went on so I "moved in". Once in I immediately ran out to get something to eat my plan was to eat, shower and get straight to bed, even though it was only 8 PM I was spent. After eating I went back to the room and moving slower now began to notice things, like the cigarette burn holes in the bed spreads and blankets, the ceiling was covered in dust clumps from the AC blowing on it, one of the 3 lights that was not working had no bulb in it, the phone plug was pulled out and would not stay inserted in the phone as someone broke the lock tab off it, the small coffee maker looked as if it had been used to strain used motor oil, if noticed chunks of dog food on the floor and 3 slices of pepperoni, (I did not have any pepperoni for dinner and was not traveling with a dog!), the small metal storage cabinet on the wall had drippings of the same oily substance that was in and on the coffee maker. At this point I stopped looking and decided that as exhausted as I was I just needed to shower and go to bed and get up early and get out of there!! I got my clothes, razor, and toiletries and walked into the bathroom. Pulling the shower curtain back to turn on the water, I was met by a cockroach and his companion crawling out of the tub drain!! So much for my shower!! When I turned to get my camera to capture the moment of our introduction I saw 5 more of the roaches relatives, in varying degrees of decay on the floor next to the fridge, and under the fridge door. I photographed Mr and Mrs roach in the tub before sending them both to the great beyond them proceeded to take pics of the "crime" scene with the 5 dead relatives of the aforementioned and now themselves deceased Mr and Mrs roach. I then took pics of everything else I have mentioned. Without a shower I lay down on top of the bed to try and get some sleep. Every time I closed my eyes and started to drift off, I would see Mr and Mrs roach making their approach and introduction from the tub drain!! 2 hours was all I got at the most, between the sirens, the argument in the parking lot between the hooker and her John or pimp, the 2 druggies in the room opposite mine arguing about some missing rocks and the nightly neighbourhood party at 1 AM in the alley next door!!  I was up and out before sunrise and immediately called Choice and filed a complaint complete with an email with pictures attached, especially of the roach family, dead and alive. All I can say is DO NOT EVEN CONSIDER STAYING AT THIS HOTEL!! OH yeah, almost forgot, the swimming pool was filled with green water!! Fresh water, not salt water and when the underwater lights came on after dark, I could see the water was literally green!! So, take or don't take my advice, but if you decide to stay here, make sure your will is signed and compete you have some roach motels with you and be prepared not to get any sleep at all. And leave your bathing suit at home, you would most likely contract a disease from swimming in this water!! Hope I was able to help and prevent someone else from having to love the Hell night I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r205444957-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205444957</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Do Not Stay!!</t>
+  </si>
+  <si>
+    <t>I paid online for this place, luckily for just a night. I was well shocked when I arrived.First, the staff was not at the dest and had put up a note that he would return in 30 minutes. When he eventually returned, he gave me a room. When I got to room 222, I discovered the link door to the connecting room had been burst open inwards and was not fixed. I returned to the reception hall and asked for another room. This time he gave me room 229 only for me to discover the safety lock behind had been ripped off forcefully and left unfixed. I secured the door with wooden furniture but could hardly sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I paid online for this place, luckily for just a night. I was well shocked when I arrived.First, the staff was not at the dest and had put up a note that he would return in 30 minutes. When he eventually returned, he gave me a room. When I got to room 222, I discovered the link door to the connecting room had been burst open inwards and was not fixed. I returned to the reception hall and asked for another room. This time he gave me room 229 only for me to discover the safety lock behind had been ripped off forcefully and left unfixed. I secured the door with wooden furniture but could hardly sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r185545248-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185545248</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Nothing Working</t>
+  </si>
+  <si>
+    <t>The actual beds were fine.  I was originally checked into a room that was not clean.  I was given a second room, but my key would not work.  The manager used his key and then informed me I would just need to stay in my room until the next day so that I would not get locked out.  I has to stay(on a budget and already charged).  The next morning the shower did not work.  In the end they did nothing to resolve the issues when I reported them in the morning.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r155297175-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155297175</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Worst "hotel" EVER!!!</t>
+  </si>
+  <si>
+    <t>First off, the manager isn't at the front desk half the time-- my room key stopped working when I got back from dinner and I went to the front desk for a new one, and I had to wait 20 minutes for the manager to come to the window. I knocked several times to no avail. Then, when I asked for a new key, he made me repeat myself four times, and asked my room number. I gave him the number, and he exclaimed, ''WHAT? Isn't that the GYM?!" And I had to repeat several times that it was, indeed, my room number. I was staying with a couple of friends, and we had only two towels in our room. We politely asked on numerous occasions for extra towels, but the manager kept telling us there weren't any. I noticed a stain on one of the bed sheets, and the inside of the door was covered with a sticky brown liquid. Some of my friends attempted to get extra towels so they could swim, but the manager responded by reciting Shakespeare poems and quoting Mark Twain instead of providing towels, so my friends had to leave the pool. Everything at the hotel was broken! The ice machine didn't work, and there were various broken appliance in and around the hotel. Everything in the exercise room was broken except for two bikes. I attempted to fix one of the machines, and...First off, the manager isn't at the front desk half the time-- my room key stopped working when I got back from dinner and I went to the front desk for a new one, and I had to wait 20 minutes for the manager to come to the window. I knocked several times to no avail. Then, when I asked for a new key, he made me repeat myself four times, and asked my room number. I gave him the number, and he exclaimed, ''WHAT? Isn't that the GYM?!" And I had to repeat several times that it was, indeed, my room number. I was staying with a couple of friends, and we had only two towels in our room. We politely asked on numerous occasions for extra towels, but the manager kept telling us there weren't any. I noticed a stain on one of the bed sheets, and the inside of the door was covered with a sticky brown liquid. Some of my friends attempted to get extra towels so they could swim, but the manager responded by reciting Shakespeare poems and quoting Mark Twain instead of providing towels, so my friends had to leave the pool. Everything at the hotel was broken! The ice machine didn't work, and there were various broken appliance in and around the hotel. Everything in the exercise room was broken except for two bikes. I attempted to fix one of the machines, and this resulted in a heavy piece of metal flying off one of the machines and nearly hitting my friend in the face. Not even the clock or the AC in the exercise room worked. For breakfast, there was stale bread-- I tried toasting it, and that made it even worse. It tasted months old or like it'd been sitting out. The coffee was stale and horrible, and everything else was barely edible. The waffles kept getting stuck in the waffle machine creating a huge gooey mess. I ended up having to get breakfast at a cafe down the street. One night, my friend and I wanted to sit in the lobby, but apparently it was closed at only 10pm... Also, the owner of this hotel is a VERY angry man, and needs anger management as someone before me has said. I stayed here a few years ago, and the experience was just as bad as this one- the owner yelled and yelled and refused to give us more than 6 towels for TEN people! Then he threatened to call the police because my younger siblings hung their towels near the pool to dry since he wouldn't provide more. Stay away from this place. It needs to be shut down immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>First off, the manager isn't at the front desk half the time-- my room key stopped working when I got back from dinner and I went to the front desk for a new one, and I had to wait 20 minutes for the manager to come to the window. I knocked several times to no avail. Then, when I asked for a new key, he made me repeat myself four times, and asked my room number. I gave him the number, and he exclaimed, ''WHAT? Isn't that the GYM?!" And I had to repeat several times that it was, indeed, my room number. I was staying with a couple of friends, and we had only two towels in our room. We politely asked on numerous occasions for extra towels, but the manager kept telling us there weren't any. I noticed a stain on one of the bed sheets, and the inside of the door was covered with a sticky brown liquid. Some of my friends attempted to get extra towels so they could swim, but the manager responded by reciting Shakespeare poems and quoting Mark Twain instead of providing towels, so my friends had to leave the pool. Everything at the hotel was broken! The ice machine didn't work, and there were various broken appliance in and around the hotel. Everything in the exercise room was broken except for two bikes. I attempted to fix one of the machines, and...First off, the manager isn't at the front desk half the time-- my room key stopped working when I got back from dinner and I went to the front desk for a new one, and I had to wait 20 minutes for the manager to come to the window. I knocked several times to no avail. Then, when I asked for a new key, he made me repeat myself four times, and asked my room number. I gave him the number, and he exclaimed, ''WHAT? Isn't that the GYM?!" And I had to repeat several times that it was, indeed, my room number. I was staying with a couple of friends, and we had only two towels in our room. We politely asked on numerous occasions for extra towels, but the manager kept telling us there weren't any. I noticed a stain on one of the bed sheets, and the inside of the door was covered with a sticky brown liquid. Some of my friends attempted to get extra towels so they could swim, but the manager responded by reciting Shakespeare poems and quoting Mark Twain instead of providing towels, so my friends had to leave the pool. Everything at the hotel was broken! The ice machine didn't work, and there were various broken appliance in and around the hotel. Everything in the exercise room was broken except for two bikes. I attempted to fix one of the machines, and this resulted in a heavy piece of metal flying off one of the machines and nearly hitting my friend in the face. Not even the clock or the AC in the exercise room worked. For breakfast, there was stale bread-- I tried toasting it, and that made it even worse. It tasted months old or like it'd been sitting out. The coffee was stale and horrible, and everything else was barely edible. The waffles kept getting stuck in the waffle machine creating a huge gooey mess. I ended up having to get breakfast at a cafe down the street. One night, my friend and I wanted to sit in the lobby, but apparently it was closed at only 10pm... Also, the owner of this hotel is a VERY angry man, and needs anger management as someone before me has said. I stayed here a few years ago, and the experience was just as bad as this one- the owner yelled and yelled and refused to give us more than 6 towels for TEN people! Then he threatened to call the police because my younger siblings hung their towels near the pool to dry since he wouldn't provide more. Stay away from this place. It needs to be shut down immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r150931364-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150931364</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Clean and Cheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location is in the back of a busy street but no noise. Front Desk personnell was very friendly. Room was clean, adequate for price, Microwave missing the turnplate but functional. Bed was comfortable and the water was hot. Would stay there again. </t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r136496960-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136496960</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Manager harasses guests...no towels, toilette paper or soap...</t>
+  </si>
+  <si>
+    <t>We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper...We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper and soap same comment.  B'fast is supposed to be from 7 - 10 and pale enough as it is.  One day we went in at 9 and the room was locked.  Mr Patel said he had errands to run and closed it up.  None of this was acceptable.  People knocked on door in b'fast room for things such as "no frills brand" tea bags since there never were any.  One day he put a sign on the waffle maker out of service.  He just didn't pour the mix.  It seemed when they ran out of something they were out.  After my complaining to him and telling him I'd have him written up he said "I own this hotel and nobody is going to do anything to me".  He was very rude and at times just closed the office to run his errands.  The day we checked out he was nowhere at the front desk and no help there either.  We kept yelling around the property to surrender our key.  He was on his cell, which I think he lives upstairs in one of the rooms since that's where I heard his voice often and he came in saw me standing there and walked out again.  I had to chase him to give him the key and didn't get a final receipt.  The last three days of our visit I was having coffee, doing work on our laptop at the broken down table in the room and Mr. Patel would walk by early in the a.m. and knock on my window.  I opened the drape on two occasions and he would "wave".  He runs this hotel with limited staff, which seems to be there mid-day only of what I saw and of no help.  DON'T DO IT.  BETTER OFF AT A MOTEL 8 OR ANOTHER CHOICE PRIVILEGES LOCATION.  Only thing good was the location to getting downtown or restaurants without paying parking.  Ruined our vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper...We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper and soap same comment.  B'fast is supposed to be from 7 - 10 and pale enough as it is.  One day we went in at 9 and the room was locked.  Mr Patel said he had errands to run and closed it up.  None of this was acceptable.  People knocked on door in b'fast room for things such as "no frills brand" tea bags since there never were any.  One day he put a sign on the waffle maker out of service.  He just didn't pour the mix.  It seemed when they ran out of something they were out.  After my complaining to him and telling him I'd have him written up he said "I own this hotel and nobody is going to do anything to me".  He was very rude and at times just closed the office to run his errands.  The day we checked out he was nowhere at the front desk and no help there either.  We kept yelling around the property to surrender our key.  He was on his cell, which I think he lives upstairs in one of the rooms since that's where I heard his voice often and he came in saw me standing there and walked out again.  I had to chase him to give him the key and didn't get a final receipt.  The last three days of our visit I was having coffee, doing work on our laptop at the broken down table in the room and Mr. Patel would walk by early in the a.m. and knock on my window.  I opened the drape on two occasions and he would "wave".  He runs this hotel with limited staff, which seems to be there mid-day only of what I saw and of no help.  DON'T DO IT.  BETTER OFF AT A MOTEL 8 OR ANOTHER CHOICE PRIVILEGES LOCATION.  Only thing good was the location to getting downtown or restaurants without paying parking.  Ruined our vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r126955403-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126955403</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Try somewhere else</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night, arrived at mid-night and left very early next morning. Given such a short stay, the experience is terrible.When we arrived, the receiption is locked up, waited for a while before anyone comes to check us in. After I got into the room, it is not clean at all. The bed sheet is stained, and you can still smell cigarette. But I am too tired to do anything about it, I just wanted to crash in, so I went to take a shower. The water pressure is terrible, so I barely finished my shower.When I got up the next morning, I only had time to get a quick bite from their breakfast. But it is the worst I have seen, so I walked away without taking anything, and left this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night, arrived at mid-night and left very early next morning. Given such a short stay, the experience is terrible.When we arrived, the receiption is locked up, waited for a while before anyone comes to check us in. After I got into the room, it is not clean at all. The bed sheet is stained, and you can still smell cigarette. But I am too tired to do anything about it, I just wanted to crash in, so I went to take a shower. The water pressure is terrible, so I barely finished my shower.When I got up the next morning, I only had time to get a quick bite from their breakfast. But it is the worst I have seen, so I walked away without taking anything, and left this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r120437773-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120437773</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>This Hotel Needs To Be Shut Down!</t>
+  </si>
+  <si>
+    <t>I am writing this review because I honestly am concerned for future human beings wanting a hotel room. I stayed at this hotel to spend some quality time with wife, children, and our most beloved chihuahua. Time is precious because my wife is serving our great country in the military and we will not be seeing her for a very long time. With that being said, we arrived at this hotel and I was immediately embarrassed to have us staying at this hotel. We stay here anyways to make the best of it and the poor service continued throughout the stay. We have four people in our family and our room had two dingy towels in it. We ask the hotel for extra towels and they say they have none, and they tell us to talk to a cleaning lady instead of handling it themselves and bringing us towels. We asked for the internet password so that we could use the wifi and the manager gets angry that what he told us was not working. He kept giving us the name of the connection instead of the password and insisted that we were entering it incorrectly. We had no ice bucket in our room, so I had to go to the front desk and ask for one and they have no extra ones. I had to go find a cleaning lady and tell her we need to get an ice...I am writing this review because I honestly am concerned for future human beings wanting a hotel room. I stayed at this hotel to spend some quality time with wife, children, and our most beloved chihuahua. Time is precious because my wife is serving our great country in the military and we will not be seeing her for a very long time. With that being said, we arrived at this hotel and I was immediately embarrassed to have us staying at this hotel. We stay here anyways to make the best of it and the poor service continued throughout the stay. We have four people in our family and our room had two dingy towels in it. We ask the hotel for extra towels and they say they have none, and they tell us to talk to a cleaning lady instead of handling it themselves and bringing us towels. We asked for the internet password so that we could use the wifi and the manager gets angry that what he told us was not working. He kept giving us the name of the connection instead of the password and insisted that we were entering it incorrectly. We had no ice bucket in our room, so I had to go to the front desk and ask for one and they have no extra ones. I had to go find a cleaning lady and tell her we need to get an ice bucket from another room. I follow her to several rooms before we finally find a room with an ice bucket. We had a strange box under our bed tha was plugged into the outlet for some reason, making my family nervous and scared at would it could be. Our bathroom door could not be shut completely. The breakfast in the morning was plain consisting of two kinds of cereal, some dry biscuits with nothing to put on them and not enough waffle batter to make a waffle for everyone in my family. The worst part of it all we go out for the day for some family time and when we return to the hotel our beloved chihuahua that I gave to my wife for her birthday and that has been a huge part of our family for over six years is missing from our hotel room. We inform the front desk that our dog is missing and they say that they did not even go in that room, and yet they try to blame us for not having a Do Not Disturb sign up. First of all, there was no Do Not Disturb sign in our room to use, what a shock right? We got more towels from the cleaning lady as my son and chihuahua are standing next to me and we tell her that we do not need our room serviced. We search the whole neighborhood for our lost chihuahua and finally find him dead on a sidewalk from being hit by a car on the busy road about a half of a block from the hotel. The manager shown no remorse for what happened and just wants to blame me and my family. They could have called me to let me know when they let him out and I could have been there to save his life, instead they do nothing and don't have any feelings for us. After all this he says all that he can do is refund one lousy nights stay at this nightmare of a hotel! Please listen to me when I say, Please DO NOT STAY ONE NIGHT IN THIS HOTEL. Even if all the hotels in Houston are booked up, you would be safer staying in your own vehicle.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I am writing this review because I honestly am concerned for future human beings wanting a hotel room. I stayed at this hotel to spend some quality time with wife, children, and our most beloved chihuahua. Time is precious because my wife is serving our great country in the military and we will not be seeing her for a very long time. With that being said, we arrived at this hotel and I was immediately embarrassed to have us staying at this hotel. We stay here anyways to make the best of it and the poor service continued throughout the stay. We have four people in our family and our room had two dingy towels in it. We ask the hotel for extra towels and they say they have none, and they tell us to talk to a cleaning lady instead of handling it themselves and bringing us towels. We asked for the internet password so that we could use the wifi and the manager gets angry that what he told us was not working. He kept giving us the name of the connection instead of the password and insisted that we were entering it incorrectly. We had no ice bucket in our room, so I had to go to the front desk and ask for one and they have no extra ones. I had to go find a cleaning lady and tell her we need to get an ice...I am writing this review because I honestly am concerned for future human beings wanting a hotel room. I stayed at this hotel to spend some quality time with wife, children, and our most beloved chihuahua. Time is precious because my wife is serving our great country in the military and we will not be seeing her for a very long time. With that being said, we arrived at this hotel and I was immediately embarrassed to have us staying at this hotel. We stay here anyways to make the best of it and the poor service continued throughout the stay. We have four people in our family and our room had two dingy towels in it. We ask the hotel for extra towels and they say they have none, and they tell us to talk to a cleaning lady instead of handling it themselves and bringing us towels. We asked for the internet password so that we could use the wifi and the manager gets angry that what he told us was not working. He kept giving us the name of the connection instead of the password and insisted that we were entering it incorrectly. We had no ice bucket in our room, so I had to go to the front desk and ask for one and they have no extra ones. I had to go find a cleaning lady and tell her we need to get an ice bucket from another room. I follow her to several rooms before we finally find a room with an ice bucket. We had a strange box under our bed tha was plugged into the outlet for some reason, making my family nervous and scared at would it could be. Our bathroom door could not be shut completely. The breakfast in the morning was plain consisting of two kinds of cereal, some dry biscuits with nothing to put on them and not enough waffle batter to make a waffle for everyone in my family. The worst part of it all we go out for the day for some family time and when we return to the hotel our beloved chihuahua that I gave to my wife for her birthday and that has been a huge part of our family for over six years is missing from our hotel room. We inform the front desk that our dog is missing and they say that they did not even go in that room, and yet they try to blame us for not having a Do Not Disturb sign up. First of all, there was no Do Not Disturb sign in our room to use, what a shock right? We got more towels from the cleaning lady as my son and chihuahua are standing next to me and we tell her that we do not need our room serviced. We search the whole neighborhood for our lost chihuahua and finally find him dead on a sidewalk from being hit by a car on the busy road about a half of a block from the hotel. The manager shown no remorse for what happened and just wants to blame me and my family. They could have called me to let me know when they let him out and I could have been there to save his life, instead they do nothing and don't have any feelings for us. After all this he says all that he can do is refund one lousy nights stay at this nightmare of a hotel! Please listen to me when I say, Please DO NOT STAY ONE NIGHT IN THIS HOTEL. Even if all the hotels in Houston are booked up, you would be safer staying in your own vehicle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r120386092-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120386092</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>They killed my dog</t>
+  </si>
+  <si>
+    <t>My week stay in Houston was to be amazing. My mother had come from fort hood on a week long military break to see her family and pet chihuahua. Our stay in the hotel was ABSOLUTE HELL. We had two towels in the room, and when we asked for more, we were told there were no more towels. On friday night (11-6-11) we left to see the space center for a few hours. On our way out the door, the spanish cleaning lady was told to absolutely not enter hour room. The "do not disturb" signs were missing. When we came back to greet our happy little puppy, we found him missing. Immediatly distressed, we searched the neighborhoods (unknown to us, we're all from wichita) for hours before finding him DEAD in a plastic bag near a bus stop. Sebastion (our dog) was securely in his room before we left, and there were no signs of forced entry. One of those people let our dog out, and none of them would confess to it. If I had only seen this site, my dog would still be alive. Now, an American soldier has to go to Iraq with the stress of a recently lost loved one, and it's the fault of the Westheimer Quality Inn. Do NOT stay in this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>My week stay in Houston was to be amazing. My mother had come from fort hood on a week long military break to see her family and pet chihuahua. Our stay in the hotel was ABSOLUTE HELL. We had two towels in the room, and when we asked for more, we were told there were no more towels. On friday night (11-6-11) we left to see the space center for a few hours. On our way out the door, the spanish cleaning lady was told to absolutely not enter hour room. The "do not disturb" signs were missing. When we came back to greet our happy little puppy, we found him missing. Immediatly distressed, we searched the neighborhoods (unknown to us, we're all from wichita) for hours before finding him DEAD in a plastic bag near a bus stop. Sebastion (our dog) was securely in his room before we left, and there were no signs of forced entry. One of those people let our dog out, and none of them would confess to it. If I had only seen this site, my dog would still be alive. Now, an American soldier has to go to Iraq with the stress of a recently lost loved one, and it's the fault of the Westheimer Quality Inn. Do NOT stay in this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r89007899-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89007899</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
+  </si>
+  <si>
+    <t>Be warned -</t>
+  </si>
+  <si>
+    <t>Stupid me I was in a hurry and forgot to check this site - definitely my loss.  First the picture of the front is misleading - newer facade on an old hotel.  Suite is  2 old rooms connected, 1 bathroom obviously overlooked in attempting to remodel.  
+I usually travel single but this time met up with my daughter and two granddaughters for a nice weekend.  Location sounds great but behind a strip center, you drive through the parking lot to get to hotel in back.  Swimming pool is in center of rectangular courtyard - right outside your door.  
+No problems initially, just not a suite that was worth the money.  When making reservation it sounded like they were full up and that only 1 suite left.  Well they only had 2 suites and for awhile, we thought we were the only ones at the hotel.
+-- Breakfast was not worth the time, boring, plain.  Breakfast not like commercial on TV - no employees present, out of food early.  Granddaughters were excited about "cooking" hot waffles as the desk clerk promised at check-in.  They ended up very disappointed with no batter, no one to help.  
+-- We left to go shopping - on arrival back we found the door standing open - I was shocked.  This room was right on the main walkway, it was obviously open.  Contacted desk immediately, after 3 attempts with no answer, finally reached a man who...Stupid me I was in a hurry and forgot to check this site - definitely my loss.  First the picture of the front is misleading - newer facade on an old hotel.  Suite is  2 old rooms connected, 1 bathroom obviously overlooked in attempting to remodel.  I usually travel single but this time met up with my daughter and two granddaughters for a nice weekend.  Location sounds great but behind a strip center, you drive through the parking lot to get to hotel in back.  Swimming pool is in center of rectangular courtyard - right outside your door.  No problems initially, just not a suite that was worth the money.  When making reservation it sounded like they were full up and that only 1 suite left.  Well they only had 2 suites and for awhile, we thought we were the only ones at the hotel.-- Breakfast was not worth the time, boring, plain.  Breakfast not like commercial on TV - no employees present, out of food early.  Granddaughters were excited about "cooking" hot waffles as the desk clerk promised at check-in.  They ended up very disappointed with no batter, no one to help.  -- We left to go shopping - on arrival back we found the door standing open - I was shocked.  This room was right on the main walkway, it was obviously open.  Contacted desk immediately, after 3 attempts with no answer, finally reached a man who stated we must have left the door open and ignored any other possibilities.  I suggested he supervise his housekeeping staff more, no reaction.-- TV, lamps in one room stopped working after 15 minutes of use.  Called desk.  I was told to check the connections on the back of the TV, to check connections at receptacle under a table, and to turn the TV/lamp/etc. on and off a couple of times.  As my room was the closest to the office, it was definitely not because we were on the other side of the property.  Finally they sent someone to the room, no ID on him, no uniform - immediately implied that we must have done something.  He fiddled with the receptacle under the table and reported that one of the plugs was not plugged in (ignored the fact that two were involved).   Again, insinuated that we were at fault and wasting his time.  I made sure no one was to use table or be in area)-- Three times the card key would not work upon returning to the room, two other times it  took 3-5 inserts to finally open the door.  One time I walked to the front desk and received a new key, two times they walked to my room - then told me I must have not done it right, had the key near magnets, etc., etc..  -- At no time when calling the front desk, did anyone answer on the first 2 calls.  One time it took 20 calls for someone to answer.  During the weekend, I observed that no one was at the front desk on numerous times.  One time the desk clerk was washing his car which he had parked under the portico outside the main door.  I prayed we would not have a need for immediate assistance.-- The topper to the weekend was the office person at 8 am on Sunday morning turning on a weed-eater and a leaf blower.  He worked his way around the pool area until after 10:30.  A lovely way to wake up, right outside your windows.Never an apology. When asked by email about my stay - I relayed the above information.  Never did get a response.My future interest in Quality and its related brands is non-existent.  I will never stay at another one of these hotels again.I can never trust them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Stupid me I was in a hurry and forgot to check this site - definitely my loss.  First the picture of the front is misleading - newer facade on an old hotel.  Suite is  2 old rooms connected, 1 bathroom obviously overlooked in attempting to remodel.  
+I usually travel single but this time met up with my daughter and two granddaughters for a nice weekend.  Location sounds great but behind a strip center, you drive through the parking lot to get to hotel in back.  Swimming pool is in center of rectangular courtyard - right outside your door.  
+No problems initially, just not a suite that was worth the money.  When making reservation it sounded like they were full up and that only 1 suite left.  Well they only had 2 suites and for awhile, we thought we were the only ones at the hotel.
+-- Breakfast was not worth the time, boring, plain.  Breakfast not like commercial on TV - no employees present, out of food early.  Granddaughters were excited about "cooking" hot waffles as the desk clerk promised at check-in.  They ended up very disappointed with no batter, no one to help.  
+-- We left to go shopping - on arrival back we found the door standing open - I was shocked.  This room was right on the main walkway, it was obviously open.  Contacted desk immediately, after 3 attempts with no answer, finally reached a man who...Stupid me I was in a hurry and forgot to check this site - definitely my loss.  First the picture of the front is misleading - newer facade on an old hotel.  Suite is  2 old rooms connected, 1 bathroom obviously overlooked in attempting to remodel.  I usually travel single but this time met up with my daughter and two granddaughters for a nice weekend.  Location sounds great but behind a strip center, you drive through the parking lot to get to hotel in back.  Swimming pool is in center of rectangular courtyard - right outside your door.  No problems initially, just not a suite that was worth the money.  When making reservation it sounded like they were full up and that only 1 suite left.  Well they only had 2 suites and for awhile, we thought we were the only ones at the hotel.-- Breakfast was not worth the time, boring, plain.  Breakfast not like commercial on TV - no employees present, out of food early.  Granddaughters were excited about "cooking" hot waffles as the desk clerk promised at check-in.  They ended up very disappointed with no batter, no one to help.  -- We left to go shopping - on arrival back we found the door standing open - I was shocked.  This room was right on the main walkway, it was obviously open.  Contacted desk immediately, after 3 attempts with no answer, finally reached a man who stated we must have left the door open and ignored any other possibilities.  I suggested he supervise his housekeeping staff more, no reaction.-- TV, lamps in one room stopped working after 15 minutes of use.  Called desk.  I was told to check the connections on the back of the TV, to check connections at receptacle under a table, and to turn the TV/lamp/etc. on and off a couple of times.  As my room was the closest to the office, it was definitely not because we were on the other side of the property.  Finally they sent someone to the room, no ID on him, no uniform - immediately implied that we must have done something.  He fiddled with the receptacle under the table and reported that one of the plugs was not plugged in (ignored the fact that two were involved).   Again, insinuated that we were at fault and wasting his time.  I made sure no one was to use table or be in area)-- Three times the card key would not work upon returning to the room, two other times it  took 3-5 inserts to finally open the door.  One time I walked to the front desk and received a new key, two times they walked to my room - then told me I must have not done it right, had the key near magnets, etc., etc..  -- At no time when calling the front desk, did anyone answer on the first 2 calls.  One time it took 20 calls for someone to answer.  During the weekend, I observed that no one was at the front desk on numerous times.  One time the desk clerk was washing his car which he had parked under the portico outside the main door.  I prayed we would not have a need for immediate assistance.-- The topper to the weekend was the office person at 8 am on Sunday morning turning on a weed-eater and a leaf blower.  He worked his way around the pool area until after 10:30.  A lovely way to wake up, right outside your windows.Never an apology. When asked by email about my stay - I relayed the above information.  Never did get a response.My future interest in Quality and its related brands is non-existent.  I will never stay at another one of these hotels again.I can never trust them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r54614063-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54614063</t>
+  </si>
+  <si>
+    <t>01/28/2010</t>
+  </si>
+  <si>
+    <t>Horrible, apathetic management</t>
+  </si>
+  <si>
+    <t>It was my first Houston hotel visit.  I was visiting my office in Houston, and this hotel was one of the closest.  One of my employees dropped me off, and before I left the car, he looked at me after seeing the front of the hotel and said, "Are you sure you'll be OK?"  It only got worse from there.  The hotel management took about 30 minutes before they even talked to me.  No acknowledgement that I was even in the lobby.  They finally checked me in.  The hotel room was old, but seemed adequate, although it smelled a bit musty.  The  mattress was hard, but not too hard.  The plumbing fixtures seemed like someone had tried to repair them and didn't finish.  But I was so tired, I stayed.  The next morning I went to work out, and that's when it got interesting.  The "Fitness Room" had no air conditioning, a broken clock, and virtually all of their equipment was broken and/or rusted.  Two stationery bikes.  One wouldn't adjust, and the other one had one rusty screw that had to be forced into the seat stem to get the seat to stay put.  It didn't work.  The treadmill didn't work.  I was booked for two nights.  I left after the first night and complained to Quality Inn corporate.  They contacted the owners of this franchise hotel, who called me only to offer to let me stay again at a...It was my first Houston hotel visit.  I was visiting my office in Houston, and this hotel was one of the closest.  One of my employees dropped me off, and before I left the car, he looked at me after seeing the front of the hotel and said, "Are you sure you'll be OK?"  It only got worse from there.  The hotel management took about 30 minutes before they even talked to me.  No acknowledgement that I was even in the lobby.  They finally checked me in.  The hotel room was old, but seemed adequate, although it smelled a bit musty.  The  mattress was hard, but not too hard.  The plumbing fixtures seemed like someone had tried to repair them and didn't finish.  But I was so tired, I stayed.  The next morning I went to work out, and that's when it got interesting.  The "Fitness Room" had no air conditioning, a broken clock, and virtually all of their equipment was broken and/or rusted.  Two stationery bikes.  One wouldn't adjust, and the other one had one rusty screw that had to be forced into the seat stem to get the seat to stay put.  It didn't work.  The treadmill didn't work.  I was booked for two nights.  I left after the first night and complained to Quality Inn corporate.  They contacted the owners of this franchise hotel, who called me only to offer to let me stay again at a reduced rate.  No Thanks!  I went to the Courtland Marriott down Westheimer, and slept much better.  This is no knock on the Comfort Chain in general.  My Houston mainstay hotel was the Comfort Inn/Suites off Westheimer/Wilcrest.  Very adequate.  But I would avoid this Quality Inn like the plague.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>It was my first Houston hotel visit.  I was visiting my office in Houston, and this hotel was one of the closest.  One of my employees dropped me off, and before I left the car, he looked at me after seeing the front of the hotel and said, "Are you sure you'll be OK?"  It only got worse from there.  The hotel management took about 30 minutes before they even talked to me.  No acknowledgement that I was even in the lobby.  They finally checked me in.  The hotel room was old, but seemed adequate, although it smelled a bit musty.  The  mattress was hard, but not too hard.  The plumbing fixtures seemed like someone had tried to repair them and didn't finish.  But I was so tired, I stayed.  The next morning I went to work out, and that's when it got interesting.  The "Fitness Room" had no air conditioning, a broken clock, and virtually all of their equipment was broken and/or rusted.  Two stationery bikes.  One wouldn't adjust, and the other one had one rusty screw that had to be forced into the seat stem to get the seat to stay put.  It didn't work.  The treadmill didn't work.  I was booked for two nights.  I left after the first night and complained to Quality Inn corporate.  They contacted the owners of this franchise hotel, who called me only to offer to let me stay again at a...It was my first Houston hotel visit.  I was visiting my office in Houston, and this hotel was one of the closest.  One of my employees dropped me off, and before I left the car, he looked at me after seeing the front of the hotel and said, "Are you sure you'll be OK?"  It only got worse from there.  The hotel management took about 30 minutes before they even talked to me.  No acknowledgement that I was even in the lobby.  They finally checked me in.  The hotel room was old, but seemed adequate, although it smelled a bit musty.  The  mattress was hard, but not too hard.  The plumbing fixtures seemed like someone had tried to repair them and didn't finish.  But I was so tired, I stayed.  The next morning I went to work out, and that's when it got interesting.  The "Fitness Room" had no air conditioning, a broken clock, and virtually all of their equipment was broken and/or rusted.  Two stationery bikes.  One wouldn't adjust, and the other one had one rusty screw that had to be forced into the seat stem to get the seat to stay put.  It didn't work.  The treadmill didn't work.  I was booked for two nights.  I left after the first night and complained to Quality Inn corporate.  They contacted the owners of this franchise hotel, who called me only to offer to let me stay again at a reduced rate.  No Thanks!  I went to the Courtland Marriott down Westheimer, and slept much better.  This is no knock on the Comfort Chain in general.  My Houston mainstay hotel was the Comfort Inn/Suites off Westheimer/Wilcrest.  Very adequate.  But I would avoid this Quality Inn like the plague.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r26953827-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26953827</t>
+  </si>
+  <si>
+    <t>03/27/2009</t>
+  </si>
+  <si>
+    <t>OK Overnight Stay</t>
+  </si>
+  <si>
+    <t>Good rate ($89) during OTC '08 while other area hotels were $200 plus. Free parking &amp; continental breakfast. There is a pool, while it looked clean, I didn't test it out! This hotel is ok for an overnight stay, but if you are staying more than a couple of days I would recommend staying elsewhere.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r14638926-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14638926</t>
+  </si>
+  <si>
+    <t>03/29/2008</t>
+  </si>
+  <si>
+    <t>Don't Even Think About It</t>
+  </si>
+  <si>
+    <t>This place is located behind a strip center and it’s very old and very nasty. The tub was dirty, the fixtures were all corroded, the walls had been re-plastered time and time again, the electrical fixtures were falling off, the lights didn't work until I figured out that the GFCI plug was tripped, it looks dated and dirty. The ice had melted from the freezer in the fridge and left molded water in the bottom and smelled like mildew. The legs on the headboard on the bed was broken, there was urine on the toilet, etc. I went back to the front desk within 10-15 minutes and tried to be nice and not offend the manager, but he was a total jerk. He refused to refund money unless the room was re-rented. I called the corporate number and the first person was less then helpful. All I wanted was to transfer the reservation to another hotel in the chain that was clean and where I would feel safe. Since I was getting charged, I decided to go back and get the keys and go take pictures. While I was driving back around, the hotel manager on duty, beat me to the room and locked me out. I went back to the front desk with their corporate office supervisor on the phone and the manager on duty refused to allow me to take pictures. The corporate supervisor over heard on the...This place is located behind a strip center and it’s very old and very nasty. The tub was dirty, the fixtures were all corroded, the walls had been re-plastered time and time again, the electrical fixtures were falling off, the lights didn't work until I figured out that the GFCI plug was tripped, it looks dated and dirty. The ice had melted from the freezer in the fridge and left molded water in the bottom and smelled like mildew. The legs on the headboard on the bed was broken, there was urine on the toilet, etc. I went back to the front desk within 10-15 minutes and tried to be nice and not offend the manager, but he was a total jerk. He refused to refund money unless the room was re-rented. I called the corporate number and the first person was less then helpful. All I wanted was to transfer the reservation to another hotel in the chain that was clean and where I would feel safe. Since I was getting charged, I decided to go back and get the keys and go take pictures. While I was driving back around, the hotel manager on duty, beat me to the room and locked me out. I went back to the front desk with their corporate office supervisor on the phone and the manager on duty refused to allow me to take pictures. The corporate supervisor over heard on the cell phone how this guy was treating me and agreed that I would not be charged. The manager on duty demanded that I give him MY cell phone so he could speak to their corporate supervisor. This guy went so far as to suggest that my wife of over 20 years, to have been a call girl and we used the room for 15 minutes, and then wanted the money back. I will be writing the hotel chain corporate office and demanding a letter of apology. Keep in mind that this was done IN FRONT of other hotel guests. I would never consider staying at this dive. Since I didn't want to go to jail over this guy for teaching him a lesson on manners for his total lack of respect for myself or more importantly, my wife, the only recourse I have is to post my experience. I was able to take one picture of the front of the hotel and have posted it. The manager on duty was way out of line, rude, insulting and what you would expect I guess from a dump like this. When I booked this, the rate was 113 with a AAA discount, not including tax and fees.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>This place is located behind a strip center and it’s very old and very nasty. The tub was dirty, the fixtures were all corroded, the walls had been re-plastered time and time again, the electrical fixtures were falling off, the lights didn't work until I figured out that the GFCI plug was tripped, it looks dated and dirty. The ice had melted from the freezer in the fridge and left molded water in the bottom and smelled like mildew. The legs on the headboard on the bed was broken, there was urine on the toilet, etc. I went back to the front desk within 10-15 minutes and tried to be nice and not offend the manager, but he was a total jerk. He refused to refund money unless the room was re-rented. I called the corporate number and the first person was less then helpful. All I wanted was to transfer the reservation to another hotel in the chain that was clean and where I would feel safe. Since I was getting charged, I decided to go back and get the keys and go take pictures. While I was driving back around, the hotel manager on duty, beat me to the room and locked me out. I went back to the front desk with their corporate office supervisor on the phone and the manager on duty refused to allow me to take pictures. The corporate supervisor over heard on the...This place is located behind a strip center and it’s very old and very nasty. The tub was dirty, the fixtures were all corroded, the walls had been re-plastered time and time again, the electrical fixtures were falling off, the lights didn't work until I figured out that the GFCI plug was tripped, it looks dated and dirty. The ice had melted from the freezer in the fridge and left molded water in the bottom and smelled like mildew. The legs on the headboard on the bed was broken, there was urine on the toilet, etc. I went back to the front desk within 10-15 minutes and tried to be nice and not offend the manager, but he was a total jerk. He refused to refund money unless the room was re-rented. I called the corporate number and the first person was less then helpful. All I wanted was to transfer the reservation to another hotel in the chain that was clean and where I would feel safe. Since I was getting charged, I decided to go back and get the keys and go take pictures. While I was driving back around, the hotel manager on duty, beat me to the room and locked me out. I went back to the front desk with their corporate office supervisor on the phone and the manager on duty refused to allow me to take pictures. The corporate supervisor over heard on the cell phone how this guy was treating me and agreed that I would not be charged. The manager on duty demanded that I give him MY cell phone so he could speak to their corporate supervisor. This guy went so far as to suggest that my wife of over 20 years, to have been a call girl and we used the room for 15 minutes, and then wanted the money back. I will be writing the hotel chain corporate office and demanding a letter of apology. Keep in mind that this was done IN FRONT of other hotel guests. I would never consider staying at this dive. Since I didn't want to go to jail over this guy for teaching him a lesson on manners for his total lack of respect for myself or more importantly, my wife, the only recourse I have is to post my experience. I was able to take one picture of the front of the hotel and have posted it. The manager on duty was way out of line, rude, insulting and what you would expect I guess from a dump like this. When I booked this, the rate was 113 with a AAA discount, not including tax and fees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r8752116-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8752116</t>
+  </si>
+  <si>
+    <t>09/17/2007</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel located just off of Westheimer.  Very convenient to shopping and restaurants.  Staff was helpful.  Room was spacious (king bed suite).  Would definitely recommend this hotel to others.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +843,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +875,1007 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_253.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r610925445-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>109734</t>
+  </si>
+  <si>
+    <t>610925445</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>we had great stay , quite place and economic rate</t>
+  </si>
+  <si>
+    <t>Very friendly front desk clerks, happy with amenities for the price of room rate, very good king beds and suites. This good choice hotel on this road, close to the galleria mall and West chase as well. Most Hotels in the area are daily rate of $150 + Tax , so it is very economic for family.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r542122768-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542122768</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Dirty room</t>
+  </si>
+  <si>
+    <t>Luckily I did not stay here and I really should have read the reviews before trying to book a room. I reserved it online because I thought it was going to be near the galleria area due to its name and I was sold on the price. Once I got to the hotel I noticed a bunch of drunks walking around and I was scared to get out of my car. I made the move into the front office and told the clerk that I had a reservation and he just bluntly told me that we don’t have any rooms left. As I was about to walk away he said well we don’t have any clean rooms left since our housekeepers don’t work on the weekends but let me see what I can do for you. This guy was actually going to rent out a dirty room for me. I left. That’s disgustingMoreShow less</t>
+  </si>
+  <si>
+    <t>Luckily I did not stay here and I really should have read the reviews before trying to book a room. I reserved it online because I thought it was going to be near the galleria area due to its name and I was sold on the price. Once I got to the hotel I noticed a bunch of drunks walking around and I was scared to get out of my car. I made the move into the front office and told the clerk that I had a reservation and he just bluntly told me that we don’t have any rooms left. As I was about to walk away he said well we don’t have any clean rooms left since our housekeepers don’t work on the weekends but let me see what I can do for you. This guy was actually going to rent out a dirty room for me. I left. That’s disgustingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r236547763-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236547763</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>If you like bug filled rooms in a dangerous area then you have found the place!</t>
+  </si>
+  <si>
+    <t>Dirt, bugs, shady characters in the parking lot and noise that goes all night are the norm here.  The rooms are not cleaned from day to day and the smell of the trash not picked up each day is too much to tolerate. There are simply no reasons to stay here if you have another option.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r233215447-Galleria_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>109734</t>
-  </si>
-  <si>
     <t>233215447</t>
   </si>
   <si>
@@ -195,9 +252,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I paid online for this place, luckily for just a night. I was well shocked when I arrived.First, the staff was not at the dest and had put up a note that he would return in 30 minutes. When he eventually returned, he gave me a room. When I got to room 222, I discovered the link door to the connecting room had been burst open inwards and was not fixed. I returned to the reception hall and asked for another room. This time he gave me room 229 only for me to discover the safety lock behind had been ripped off forcefully and left unfixed. I secured the door with wooden furniture but could hardly sleep.More</t>
   </si>
   <si>
@@ -222,6 +276,45 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r165450837-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165450837</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>Bad!!!!</t>
+  </si>
+  <si>
+    <t>Don't stay here! Everything was old, dirty &amp; disgusting! Not a safe hotel to stay at if you have small choldren or even by yourself!Continential breakfast- not really! We had asked for a room where we could park our vehicle close to the door instead we got a room as far away from our vehicle as they could get us- not happy!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r165430463-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165430463</t>
+  </si>
+  <si>
+    <t>Used to Be a Quality Inn, Instead of Renovating, they Downgraded</t>
+  </si>
+  <si>
+    <t>There's still Quality Inn literature and stickers everywhere in this 80's hotel. Guess they made the corporate decision that it would be much cheaper to simply turn it into an Econo Lodge than to spend any money on it cleaning it up. Its a pit. Located behind a shopping center, they've fenced everything to hide that fact. Its kinda scary actually. Front desk help was courteous but when I discovered no soap or shampoo in the room they said to come to the front desk and get it, as they were the only person there. Room was good sized but has that carpet that you do NOT want to walk on barefoot. Cigarette burns on the sink counter, beat up furnishings. Surpsingly, the bed was of recent vintage and comfortable. Whew.Breakfast is awful, Froot Loops and Frosted Flakes, frozen Danish, not a piece of fruit in sight. Waffle maker is broken and has a sign on it saying so dated over a month ago.For 80 something bucks a night, go find a Red Roof or Super 8 instead. Not kidding.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>There's still Quality Inn literature and stickers everywhere in this 80's hotel. Guess they made the corporate decision that it would be much cheaper to simply turn it into an Econo Lodge than to spend any money on it cleaning it up. Its a pit. Located behind a shopping center, they've fenced everything to hide that fact. Its kinda scary actually. Front desk help was courteous but when I discovered no soap or shampoo in the room they said to come to the front desk and get it, as they were the only person there. Room was good sized but has that carpet that you do NOT want to walk on barefoot. Cigarette burns on the sink counter, beat up furnishings. Surpsingly, the bed was of recent vintage and comfortable. Whew.Breakfast is awful, Froot Loops and Frosted Flakes, frozen Danish, not a piece of fruit in sight. Waffle maker is broken and has a sign on it saying so dated over a month ago.For 80 something bucks a night, go find a Red Roof or Super 8 instead. Not kidding.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r155297175-Galleria_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,12 +372,48 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper...We arrived for a week long stay.  I had much business to take care of to schedule work on our rental property and also to meet with manager friends in Houston (downtown) so I needed to be near all, plus to balance to take our minor son out for fun (zoo.....).  We checked in and were greeted in room by a broken ironing board blocking us walking through the door with suitcases in hand.  No problem, maintenance came and removed since at 54 yrs old I don't iron on vacation.  Next the microwave did not work.  The pool was a beautiful view as we had a corner room and to be greeted the next day by inspectors tagging the pool and taping the gate so one could not use the pool for the week.  The manager, Mr. Patel, does not take much interest in his guest nor is he polished.  We paid for totl three guests on Advance purchase, one minor in our room.  No matter what we did, we could not get three towels in our room.  One day Mr. Patel told me "I don't know where you got such a low rate" and my request for at third towel was ignored saying we don't have any or the woman is washing them.  I told him we'd use the sheets if he didn't get us a towel.  This was every day we encountered these issues.  Then the toilette paper and soap same comment.  B'fast is supposed to be from 7 - 10 and pale enough as it is.  One day we went in at 9 and the room was locked.  Mr Patel said he had errands to run and closed it up.  None of this was acceptable.  People knocked on door in b'fast room for things such as "no frills brand" tea bags since there never were any.  One day he put a sign on the waffle maker out of service.  He just didn't pour the mix.  It seemed when they ran out of something they were out.  After my complaining to him and telling him I'd have him written up he said "I own this hotel and nobody is going to do anything to me".  He was very rude and at times just closed the office to run his errands.  The day we checked out he was nowhere at the front desk and no help there either.  We kept yelling around the property to surrender our key.  He was on his cell, which I think he lives upstairs in one of the rooms since that's where I heard his voice often and he came in saw me standing there and walked out again.  I had to chase him to give him the key and didn't get a final receipt.  The last three days of our visit I was having coffee, doing work on our laptop at the broken down table in the room and Mr. Patel would walk by early in the a.m. and knock on my window.  I opened the drape on two occasions and he would "wave".  He runs this hotel with limited staff, which seems to be there mid-day only of what I saw and of no help.  DON'T DO IT.  BETTER OFF AT A MOTEL 8 OR ANOTHER CHOICE PRIVILEGES LOCATION.  Only thing good was the location to getting downtown or restaurants without paying parking.  Ruined our vacation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r134993570-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134993570</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Owner needs help in all areas of ownership!!!!</t>
+  </si>
+  <si>
+    <t>I checked-in to this hotel late from a job site that I was working on. In the morning I asked, if I could possibly get a late check out since I had arrived late. The front desk associate (which was the owner) said, " NO, You have to check out at 11 am. I said, that is fine I understand, "I do not mind spending extra money for another night. So, he decides to tell me, NO, your rate is too low your paying nothing for this room (Yelling at me that is). I wondered to myself you all are the ones that set the rates and pricing not me. I asked to speak to the manager, and he has the nerve to tell me, screw the manager im the owner. I said i will be leaving this building now. I have never in my life been treated with so much disrespect not even my parents treated me this way. Yelling and ranting about the rates the hotel sets is not my problem. All in all the rate was $65 nightly rate which actually is a fair rate for this type of hotel. This stay was not worth 1 penny of my time and the hotel it self is in very bad condition. I do not think I should pay money to hear the things I heard from this property owner at the quality inn in westchase location. BEWARE OF...I checked-in to this hotel late from a job site that I was working on. In the morning I asked, if I could possibly get a late check out since I had arrived late. The front desk associate (which was the owner) said, " NO, You have to check out at 11 am. I said, that is fine I understand, "I do not mind spending extra money for another night. So, he decides to tell me, NO, your rate is too low your paying nothing for this room (Yelling at me that is). I wondered to myself you all are the ones that set the rates and pricing not me. I asked to speak to the manager, and he has the nerve to tell me, screw the manager im the owner. I said i will be leaving this building now. I have never in my life been treated with so much disrespect not even my parents treated me this way. Yelling and ranting about the rates the hotel sets is not my problem. All in all the rate was $65 nightly rate which actually is a fair rate for this type of hotel. This stay was not worth 1 penny of my time and the hotel it self is in very bad condition. I do not think I should pay money to hear the things I heard from this property owner at the quality inn in westchase location. BEWARE OF CONDITION OF HOTEL AND STAFF ESPECIALLY THE OWNER.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I checked-in to this hotel late from a job site that I was working on. In the morning I asked, if I could possibly get a late check out since I had arrived late. The front desk associate (which was the owner) said, " NO, You have to check out at 11 am. I said, that is fine I understand, "I do not mind spending extra money for another night. So, he decides to tell me, NO, your rate is too low your paying nothing for this room (Yelling at me that is). I wondered to myself you all are the ones that set the rates and pricing not me. I asked to speak to the manager, and he has the nerve to tell me, screw the manager im the owner. I said i will be leaving this building now. I have never in my life been treated with so much disrespect not even my parents treated me this way. Yelling and ranting about the rates the hotel sets is not my problem. All in all the rate was $65 nightly rate which actually is a fair rate for this type of hotel. This stay was not worth 1 penny of my time and the hotel it self is in very bad condition. I do not think I should pay money to hear the things I heard from this property owner at the quality inn in westchase location. BEWARE OF...I checked-in to this hotel late from a job site that I was working on. In the morning I asked, if I could possibly get a late check out since I had arrived late. The front desk associate (which was the owner) said, " NO, You have to check out at 11 am. I said, that is fine I understand, "I do not mind spending extra money for another night. So, he decides to tell me, NO, your rate is too low your paying nothing for this room (Yelling at me that is). I wondered to myself you all are the ones that set the rates and pricing not me. I asked to speak to the manager, and he has the nerve to tell me, screw the manager im the owner. I said i will be leaving this building now. I have never in my life been treated with so much disrespect not even my parents treated me this way. Yelling and ranting about the rates the hotel sets is not my problem. All in all the rate was $65 nightly rate which actually is a fair rate for this type of hotel. This stay was not worth 1 penny of my time and the hotel it self is in very bad condition. I do not think I should pay money to hear the things I heard from this property owner at the quality inn in westchase location. BEWARE OF CONDITION OF HOTEL AND STAFF ESPECIALLY THE OWNER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r129880037-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129880037</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Quality Inn on Westheimer - Quality should not be in the name. The roaches are taking over.</t>
+  </si>
+  <si>
+    <t>"Roach Motel". Stayed here because I've stayed here before and it was ok, it's amazing how a place can change in a years time. The place was run down like the management or owners don't care. And I saw many roaches(5 my first day), not a good feeling. Pool was murky, tiles in walkways missing, walkways had build up of dirt and could have used a good sweeping or maybe even power washed. Holes in the bedroom walls, empty frames hanging in room, even a bracket with nothing on it. Ice Machine was so dirty, believe that is a Health Dept violation. My last day talked with someone at front desk and they said their changing the name of hotel, I can see why. Sometimes felt like I was the only one staying there, only 2 cars in lot. I would never stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>"Roach Motel". Stayed here because I've stayed here before and it was ok, it's amazing how a place can change in a years time. The place was run down like the management or owners don't care. And I saw many roaches(5 my first day), not a good feeling. Pool was murky, tiles in walkways missing, walkways had build up of dirt and could have used a good sweeping or maybe even power washed. Holes in the bedroom walls, empty frames hanging in room, even a bracket with nothing on it. Ice Machine was so dirty, believe that is a Health Dept violation. My last day talked with someone at front desk and they said their changing the name of hotel, I can see why. Sometimes felt like I was the only one staying there, only 2 cars in lot. I would never stay here again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r126955403-Galleria_Inn_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -343,6 +472,48 @@
   </si>
   <si>
     <t>My week stay in Houston was to be amazing. My mother had come from fort hood on a week long military break to see her family and pet chihuahua. Our stay in the hotel was ABSOLUTE HELL. We had two towels in the room, and when we asked for more, we were told there were no more towels. On friday night (11-6-11) we left to see the space center for a few hours. On our way out the door, the spanish cleaning lady was told to absolutely not enter hour room. The "do not disturb" signs were missing. When we came back to greet our happy little puppy, we found him missing. Immediatly distressed, we searched the neighborhoods (unknown to us, we're all from wichita) for hours before finding him DEAD in a plastic bag near a bus stop. Sebastion (our dog) was securely in his room before we left, and there were no signs of forced entry. One of those people let our dog out, and none of them would confess to it. If I had only seen this site, my dog would still be alive. Now, an American soldier has to go to Iraq with the stress of a recently lost loved one, and it's the fault of the Westheimer Quality Inn. Do NOT stay in this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r119682932-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119682932</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>OMG what a dump!!</t>
+  </si>
+  <si>
+    <t>The worst place to stay in Houston has to be this place.  Roaches and bugs everywhere and the lights wouldn't come on when I first got in the room.  It's located behing an adult bookstore and is in a very shady area.  The managers is a tool.  He refused to give me a refund for staying no more than 10 minutes in the room.  Everything about this place is bad!  If I could poist pictures of the dirty comforter, the dead roaches, and the filth in the room, I would in a heartbeat.Also, Choice Hotels response was apathetic at best.  It's like the know this place is a dump but refuse to do anything about it.  BTW, the manager's last name is Patel and if you want anything from him be prepared to be abused.  I want to hear back from the President and CEO of Choice Hotels and I want him to spend the night in one of these rooms and see what he thinks.  He'd bolt just like I did and stay at the Marriott in heartbeat.  He/She needs to explain how this property maintains the Choice Hotel Brand.  I would be ashamed to call this one of my properties.  Do us all a favor and bulldoze the place down and send Mr. Patel to anger management classes.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>The worst place to stay in Houston has to be this place.  Roaches and bugs everywhere and the lights wouldn't come on when I first got in the room.  It's located behing an adult bookstore and is in a very shady area.  The managers is a tool.  He refused to give me a refund for staying no more than 10 minutes in the room.  Everything about this place is bad!  If I could poist pictures of the dirty comforter, the dead roaches, and the filth in the room, I would in a heartbeat.Also, Choice Hotels response was apathetic at best.  It's like the know this place is a dump but refuse to do anything about it.  BTW, the manager's last name is Patel and if you want anything from him be prepared to be abused.  I want to hear back from the President and CEO of Choice Hotels and I want him to spend the night in one of these rooms and see what he thinks.  He'd bolt just like I did and stay at the Marriott in heartbeat.  He/She needs to explain how this property maintains the Choice Hotel Brand.  I would be ashamed to call this one of my properties.  Do us all a favor and bulldoze the place down and send Mr. Patel to anger management classes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r106826986-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>106826986</t>
+  </si>
+  <si>
+    <t>05/04/2011</t>
+  </si>
+  <si>
+    <t>AVOID at all costs</t>
+  </si>
+  <si>
+    <t>If you are looking for a dirty, shady hotel then this is the place. Rooms are filthy, towels stained and looks as if they had not been washed in years. This is not the quality that Choice Hotels offers. The hotel is located behind a strip mal, and the hotel lobby was the first red flag! Ceiling was falling in over check in counter and you could smell the musty odor of mold and standing water. Words cannot describe how horrid the rooms were. I tried to sit at the "desk" (table) in the room and it was so broken down it could barely hold my laptop. No internet service in the rooms so I had to use the computer in the lobby to book a room somewhere else. That is after one of the neighborhood kids was done surfing the web. Management was horrible. When I did try and speak with him he was on the phone yelling at Choice customer service for yet another complaint and guest that had also checked out early. The manager/owner tried to charge me for a two night stay when I told him we were not staying. He did charge me $58.00 for a one hour stay! I phoned Choice Hotels and they sent me a check for the same amount since they could not credit my account. Choice Hotels are planning to pull their affiliation from this hell hole. Drive the extra...If you are looking for a dirty, shady hotel then this is the place. Rooms are filthy, towels stained and looks as if they had not been washed in years. This is not the quality that Choice Hotels offers. The hotel is located behind a strip mal, and the hotel lobby was the first red flag! Ceiling was falling in over check in counter and you could smell the musty odor of mold and standing water. Words cannot describe how horrid the rooms were. I tried to sit at the "desk" (table) in the room and it was so broken down it could barely hold my laptop. No internet service in the rooms so I had to use the computer in the lobby to book a room somewhere else. That is after one of the neighborhood kids was done surfing the web. Management was horrible. When I did try and speak with him he was on the phone yelling at Choice customer service for yet another complaint and guest that had also checked out early. The manager/owner tried to charge me for a two night stay when I told him we were not staying. He did charge me $58.00 for a one hour stay! I phoned Choice Hotels and they sent me a check for the same amount since they could not credit my account. Choice Hotels are planning to pull their affiliation from this hell hole. Drive the extra two miles and stay somewhere safe and clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>If you are looking for a dirty, shady hotel then this is the place. Rooms are filthy, towels stained and looks as if they had not been washed in years. This is not the quality that Choice Hotels offers. The hotel is located behind a strip mal, and the hotel lobby was the first red flag! Ceiling was falling in over check in counter and you could smell the musty odor of mold and standing water. Words cannot describe how horrid the rooms were. I tried to sit at the "desk" (table) in the room and it was so broken down it could barely hold my laptop. No internet service in the rooms so I had to use the computer in the lobby to book a room somewhere else. That is after one of the neighborhood kids was done surfing the web. Management was horrible. When I did try and speak with him he was on the phone yelling at Choice customer service for yet another complaint and guest that had also checked out early. The manager/owner tried to charge me for a two night stay when I told him we were not staying. He did charge me $58.00 for a one hour stay! I phoned Choice Hotels and they sent me a check for the same amount since they could not credit my account. Choice Hotels are planning to pull their affiliation from this hell hole. Drive the extra...If you are looking for a dirty, shady hotel then this is the place. Rooms are filthy, towels stained and looks as if they had not been washed in years. This is not the quality that Choice Hotels offers. The hotel is located behind a strip mal, and the hotel lobby was the first red flag! Ceiling was falling in over check in counter and you could smell the musty odor of mold and standing water. Words cannot describe how horrid the rooms were. I tried to sit at the "desk" (table) in the room and it was so broken down it could barely hold my laptop. No internet service in the rooms so I had to use the computer in the lobby to book a room somewhere else. That is after one of the neighborhood kids was done surfing the web. Management was horrible. When I did try and speak with him he was on the phone yelling at Choice customer service for yet another complaint and guest that had also checked out early. The manager/owner tried to charge me for a two night stay when I told him we were not staying. He did charge me $58.00 for a one hour stay! I phoned Choice Hotels and they sent me a check for the same amount since they could not credit my account. Choice Hotels are planning to pull their affiliation from this hell hole. Drive the extra two miles and stay somewhere safe and clean!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r89007899-Galleria_Inn_Suites-Houston_Texas.html</t>
@@ -411,6 +582,45 @@
   </si>
   <si>
     <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r22151424-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22151424</t>
+  </si>
+  <si>
+    <t>11/24/2008</t>
+  </si>
+  <si>
+    <t>Awful hotel</t>
+  </si>
+  <si>
+    <t>This has got to be one of the worst hotels I have ever stayed at. I checked in and the "owner" complained that Expedia are taking 30% off his profit and that he should block all Expedia bookings. Then I got to the room where NO towels were in the room, the bed had cigarette burns, the ceiling had mould stains, furniture just had stains everywhere and I would hate to guess what type of stains they where. The cleaning staff were total useless. How this type of hotel can stay in business is beyond my comprehension. I paid for the full week and stayed one night. I stayed with friends 50 mins away from Houston due to no availability in Houston. While this was inconvenient it was better than staying in a fully paid shanty that should have been condemned years ago. Pathetic and shame on Expedia for giving this two stars. I have provided pictures. Don't waste your money here. The only reason why I even tried this hotel was because ALL Houston hotels were packed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>This has got to be one of the worst hotels I have ever stayed at. I checked in and the "owner" complained that Expedia are taking 30% off his profit and that he should block all Expedia bookings. Then I got to the room where NO towels were in the room, the bed had cigarette burns, the ceiling had mould stains, furniture just had stains everywhere and I would hate to guess what type of stains they where. The cleaning staff were total useless. How this type of hotel can stay in business is beyond my comprehension. I paid for the full week and stayed one night. I stayed with friends 50 mins away from Houston due to no availability in Houston. While this was inconvenient it was better than staying in a fully paid shanty that should have been condemned years ago. Pathetic and shame on Expedia for giving this two stars. I have provided pictures. Don't waste your money here. The only reason why I even tried this hotel was because ALL Houston hotels were packed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r21800037-Galleria_Inn_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21800037</t>
+  </si>
+  <si>
+    <t>11/12/2008</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>I stayed here because price was less than other hotels in the area and I got airline credits.It is what it is.  Older and has maintenance issues but found my room was clean.  The first night the sheets were a little rough but they were changed to decent ones the next night.  Surprised to find the towels were real soft, go figure.I wouldn't stay here for the breakfast but it is edible.  Waffles, cereal, toast, pastries with coffee and juice.The best benefit was location.  CVS, Office Max, Target, Starbucks and FedEx/Kinkos are all real close.  There is a decent sushi/Japanese restaurant down the street (Kaneyama Japanese Restaurant; 9527 Westheimer Rd).So if you are traveling for work on a budget, you could do worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here because price was less than other hotels in the area and I got airline credits.It is what it is.  Older and has maintenance issues but found my room was clean.  The first night the sheets were a little rough but they were changed to decent ones the next night.  Surprised to find the towels were real soft, go figure.I wouldn't stay here for the breakfast but it is edible.  Waffles, cereal, toast, pastries with coffee and juice.The best benefit was location.  CVS, Office Max, Target, Starbucks and FedEx/Kinkos are all real close.  There is a decent sushi/Japanese restaurant down the street (Kaneyama Japanese Restaurant; 9527 Westheimer Rd).So if you are traveling for work on a budget, you could do worse.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d109734-r14638926-Galleria_Inn_Suites-Houston_Texas.html</t>
@@ -984,25 +1194,23 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1010,7 +1218,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1234,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1035,49 +1243,35 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1093,7 +1287,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1102,38 +1296,34 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1144,7 +1334,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1160,7 +1350,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1169,26 +1359,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="n">
         <v>1</v>
       </c>
@@ -1196,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1211,7 +1397,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1413,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1236,41 +1422,41 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1278,7 +1464,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1294,7 +1480,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1303,34 +1489,34 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" t="s">
-        <v>87</v>
-      </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -1345,7 +1531,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1361,7 +1547,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1370,26 +1556,26 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" t="s">
-        <v>59</v>
-      </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
@@ -1397,14 +1583,14 @@
         <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1412,7 +1598,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1428,7 +1614,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1437,41 +1623,41 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1479,7 +1665,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1495,7 +1681,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1504,22 +1690,26 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
@@ -1527,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1542,7 +1732,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1558,7 +1748,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1567,41 +1757,41 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
-      </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1609,7 +1799,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1625,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1634,28 +1824,28 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>117</v>
       </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="n">
         <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1676,7 +1866,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1692,7 +1882,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1701,41 +1891,41 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>124</v>
       </c>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
-      </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1743,7 +1933,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -1759,7 +1949,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1768,41 +1958,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>133</v>
-      </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1810,7 +1996,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -1826,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1835,47 +2021,780 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>137</v>
       </c>
-      <c r="J15" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6137</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
